--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_2_sawtooth_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_2_sawtooth_0_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[4.52628015523158, 8.82040915060586]</t>
+          <t>[4.51626377967999, 8.83042552615745]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.25007212861783e-09</v>
+        <v>2.648890440326568e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>4.500144257235661e-09</v>
+        <v>5.297780880653136e-09</v>
       </c>
       <c r="O2" t="n">
         <v>-1.383684452031541</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[7.908964200677314, 10.468838346192502]</t>
+          <t>[7.9081988174238225, 10.469603729445993]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -670,35 +670,35 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[4.342350233723904, 9.745807758659353]</t>
+          <t>[4.38478583655799, 9.703372155825267]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>4.96045452047511e-07</v>
+        <v>3.307476914571339e-07</v>
       </c>
       <c r="N3" t="n">
-        <v>4.96045452047511e-07</v>
+        <v>3.307476914571339e-07</v>
       </c>
       <c r="O3" t="n">
         <v>0.5597632555945777</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.16981581911296217, 0.9497106920761933]</t>
+          <t>[0.15723686954903915, 0.9622896416401163]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.005032136558638767</v>
+        <v>0.006561914776339606</v>
       </c>
       <c r="R3" t="n">
-        <v>0.005032136558638767</v>
+        <v>0.006561914776339606</v>
       </c>
       <c r="S3" t="n">
         <v>9.021890837704376</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[7.602303838250011, 10.441477837158741]</t>
+          <t>[7.6030449432077365, 10.440736732201016]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -711,10 +711,10 @@
         <v>21.11491491491508</v>
       </c>
       <c r="X3" t="n">
-        <v>19.67631631631647</v>
+        <v>19.62990990991007</v>
       </c>
       <c r="Y3" t="n">
-        <v>22.55351351351369</v>
+        <v>22.5999199199201</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_2_sawtooth_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_2_sawtooth_0_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[4.51626377967999, 8.83042552615745]</t>
+          <t>[4.513208353941577, 8.833480951895863]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.648890440326568e-09</v>
+        <v>2.782909902521169e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>5.297780880653136e-09</v>
+        <v>5.565819805042338e-09</v>
       </c>
       <c r="O2" t="n">
         <v>-1.383684452031541</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[7.9081988174238225, 10.469603729445993]</t>
+          <t>[7.908134579844184, 10.469667967025632]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -670,35 +670,35 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[4.38478583655799, 9.703372155825267]</t>
+          <t>[4.416109384420269, 9.672048607962989]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>3.307476914571339e-07</v>
+        <v>2.423580249821811e-07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.307476914571339e-07</v>
+        <v>2.423580249821811e-07</v>
       </c>
       <c r="O3" t="n">
         <v>0.5597632555945777</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.15723686954903915, 0.9622896416401163]</t>
+          <t>[0.1823947686768843, 0.9371317425122712]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.006561914776339606</v>
+        <v>0.003763697576945502</v>
       </c>
       <c r="R3" t="n">
-        <v>0.006561914776339606</v>
+        <v>0.003763697576945502</v>
       </c>
       <c r="S3" t="n">
         <v>9.021890837704376</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[7.6030449432077365, 10.440736732201016]</t>
+          <t>[7.602062443218504, 10.441719232190248]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -711,10 +711,10 @@
         <v>21.11491491491508</v>
       </c>
       <c r="X3" t="n">
-        <v>19.62990990991007</v>
+        <v>19.72272272272288</v>
       </c>
       <c r="Y3" t="n">
-        <v>22.5999199199201</v>
+        <v>22.50710710710729</v>
       </c>
     </row>
   </sheetData>
